--- a/biology/Zoologie/Hyainailurus/Hyainailurus.xlsx
+++ b/biology/Zoologie/Hyainailurus/Hyainailurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyainailurus, parfois orthographié Hyainailouros ou Hyaenaelurus, est un genre éteint mammifères carnivores de l'ordre des Creodonta, du clade des Hyaenodonta, de la famille des Hyainailouridae et de la sous-famille des Hyainailourinae[2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyainailurus, parfois orthographié Hyainailouros ou Hyaenaelurus, est un genre éteint mammifères carnivores de l'ordre des Creodonta, du clade des Hyaenodonta, de la famille des Hyainailouridae et de la sous-famille des Hyainailourinae.
 Hyainailurus est connu dans l'Oligocène et le Miocène d'Afrique, d'Europe et du Pakistan.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Hyainailurus a été créé en 1907 par le paléontologue suisse Hans Georg Stehlin (1870-1941) avec pour espèce type Hyainailurus sulzeri.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesurait 90 cm de hauteur, ses pattes étaient courtes. Sa dentition était faite pour arracher la chair et écraser les os. C'était plutôt un charognard.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (21 août 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (21 août 2021) :
 † Hyainailurus sulzeri Biedermann, 1863 - espèce type
 † Hyainailurus napakensis Ginsburg, 1980
 † Hyainailurus bugtiensis Pilgrim, 1910
